--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SebastianSalazar/Documents/Uniandes/Semestre 2/Estructura de datos y algoritmos/LabCollision-S07-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="11960" yWindow="460" windowWidth="24180" windowHeight="9920" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -66,12 +71,45 @@
   <si>
     <t>Consumo de Datos [kB]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Procesadores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema Operativo </t>
+  </si>
+  <si>
+    <t>Memoria RAM(GB)</t>
+  </si>
+  <si>
+    <t>Maquina 1</t>
+  </si>
+  <si>
+    <t>Maquina 2</t>
+  </si>
+  <si>
+    <t>1.6 GHz Intel Core i5</t>
+  </si>
+  <si>
+    <t>8 GB 1600 MHz DDR3</t>
+  </si>
+  <si>
+    <t>macOS High Sierra versión 10.13.6</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8265U CPU</t>
+  </si>
+  <si>
+    <t>1.60 GHz</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +134,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dax"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,10 +178,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,8 +221,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -150,7 +268,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -176,7 +293,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -202,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -228,7 +343,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -253,7 +367,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -278,7 +391,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -304,7 +416,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -330,7 +441,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -356,7 +466,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -381,7 +490,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -406,9 +514,593 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.403135953E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.403135953E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.403135953E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>48297.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55018.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73320.788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1126017344"/>
+        <c:axId val="1048290000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1126017344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048290000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1048290000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1126017344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4031358E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4031358E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4031358E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50904.716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58882.058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82042.906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1048351344"/>
+        <c:axId val="1048529552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1048351344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048529552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1048529552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048351344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -439,13 +1131,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de Tiempo</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+              <a:rPr lang="x-none" sz="1800" b="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
@@ -456,6 +1148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -481,7 +1174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -543,6 +1236,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -568,7 +1262,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -580,13 +1274,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1.403135953E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>1.403135953E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>1.403135953E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,19 +1292,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>48297.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55018.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>73320.788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -669,6 +1363,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -694,7 +1389,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -706,13 +1401,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1.4031358E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>1.4031358E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>1.4031358E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,19 +1419,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>50904.716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>58882.058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>82042.906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -750,11 +1445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="1134173744"/>
+        <c:axId val="1134176848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="1134173744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +1493,7 @@
                   <a:t>Memoria Utilizada [</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-419" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="x-none" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>kB</a:t>
@@ -810,6 +1505,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -835,7 +1531,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -873,15 +1569,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="1134176848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="1134176848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,6 +1628,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -957,7 +1654,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -995,10 +1692,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="1134173744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1012,6 +1709,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1037,20 +1735,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1074,13 +1772,93 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1633,8 +2411,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
@@ -1646,15 +3456,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,24 +3553,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A9:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
+    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="1"/>
+    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,28 +3872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +3904,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>1403135.953</v>
       </c>
       <c r="C3" s="2">
-        <v>45</v>
+        <v>48297.46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
       <c r="B4" s="2">
-        <v>105</v>
+        <v>1403135.953</v>
       </c>
       <c r="C4" s="2">
-        <v>55</v>
+        <v>55018.77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
       <c r="B5" s="2">
-        <v>115</v>
+        <v>1403135.953</v>
       </c>
       <c r="C5" s="2">
-        <v>75</v>
+        <v>73320.788</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,49 +3955,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>100</v>
+        <v>1403135.8</v>
       </c>
       <c r="C10" s="2">
-        <v>90</v>
+        <v>50904.716</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>120</v>
+        <v>1403135.8</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>58882.057999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>140</v>
+        <v>1403135.8</v>
       </c>
       <c r="C12" s="2">
-        <v>110</v>
+        <v>82042.906000000003</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
